--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H2">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I2">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J2">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N2">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O2">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P2">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q2">
-        <v>110.2179628373665</v>
+        <v>128.9637682948847</v>
       </c>
       <c r="R2">
-        <v>110.2179628373665</v>
+        <v>515.855073179539</v>
       </c>
       <c r="S2">
-        <v>0.009303274534202245</v>
+        <v>0.008495168536304526</v>
       </c>
       <c r="T2">
-        <v>0.009303274534202245</v>
+        <v>0.005764779305940731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H3">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I3">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J3">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P3">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q3">
-        <v>935.184349889909</v>
+        <v>997.9811596494634</v>
       </c>
       <c r="R3">
-        <v>935.184349889909</v>
+        <v>5987.886957896781</v>
       </c>
       <c r="S3">
-        <v>0.07893701283476885</v>
+        <v>0.06573953490482101</v>
       </c>
       <c r="T3">
-        <v>0.07893701283476885</v>
+        <v>0.06691578432762987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H4">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I4">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J4">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N4">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O4">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P4">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q4">
-        <v>230.0034568872095</v>
+        <v>0.3048593989436666</v>
       </c>
       <c r="R4">
-        <v>230.0034568872095</v>
+        <v>1.829156393662</v>
       </c>
       <c r="S4">
-        <v>0.01941412495887488</v>
+        <v>2.008185716147122E-05</v>
       </c>
       <c r="T4">
-        <v>0.01941412495887488</v>
+        <v>2.044117325534547E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H5">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I5">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J5">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N5">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O5">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P5">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q5">
-        <v>1366.674150008245</v>
+        <v>3.020075190432833</v>
       </c>
       <c r="R5">
-        <v>1366.674150008245</v>
+        <v>18.120451142597</v>
       </c>
       <c r="S5">
-        <v>0.1153581910698651</v>
+        <v>0.0001989399664282029</v>
       </c>
       <c r="T5">
-        <v>0.1153581910698651</v>
+        <v>0.0002024995142866351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1436686007192</v>
+        <v>23.7195445</v>
       </c>
       <c r="H6">
-        <v>10.1436686007192</v>
+        <v>47.439089</v>
       </c>
       <c r="I6">
-        <v>0.095924180022123</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J6">
-        <v>0.095924180022123</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N6">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O6">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P6">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q6">
-        <v>47.40793815149785</v>
+        <v>440.5600278467581</v>
       </c>
       <c r="R6">
-        <v>47.40793815149785</v>
+        <v>2643.360167080549</v>
       </c>
       <c r="S6">
-        <v>0.004001607835690636</v>
+        <v>0.02902079968971932</v>
       </c>
       <c r="T6">
-        <v>0.004001607835690636</v>
+        <v>0.02954005646471638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1436686007192</v>
+        <v>23.7195445</v>
       </c>
       <c r="H7">
-        <v>10.1436686007192</v>
+        <v>47.439089</v>
       </c>
       <c r="I7">
-        <v>0.095924180022123</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J7">
-        <v>0.095924180022123</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N7">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O7">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P7">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q7">
-        <v>402.2498754150341</v>
+        <v>1554.117684407881</v>
       </c>
       <c r="R7">
-        <v>402.2498754150341</v>
+        <v>6216.470737631523</v>
       </c>
       <c r="S7">
-        <v>0.03395309553903319</v>
+        <v>0.1023736498154105</v>
       </c>
       <c r="T7">
-        <v>0.03395309553903319</v>
+        <v>0.06947025187404078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H8">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J8">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N8">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O8">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P8">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q8">
-        <v>98.93114858989955</v>
+        <v>59.96399732301201</v>
       </c>
       <c r="R8">
-        <v>98.93114858989955</v>
+        <v>359.783983938072</v>
       </c>
       <c r="S8">
-        <v>0.00835057745236931</v>
+        <v>0.003949979673397195</v>
       </c>
       <c r="T8">
-        <v>0.00835057745236931</v>
+        <v>0.004020654972783888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H9">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J9">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.9520249709885</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N9">
-        <v>57.9520249709885</v>
+        <v>126.222638</v>
       </c>
       <c r="O9">
-        <v>0.5172720703329052</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P9">
-        <v>0.5172720703329052</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q9">
-        <v>587.846136046311</v>
+        <v>464.0290864392373</v>
       </c>
       <c r="R9">
-        <v>587.846136046311</v>
+        <v>4176.261777953136</v>
       </c>
       <c r="S9">
-        <v>0.04961889919502987</v>
+        <v>0.03056676574489564</v>
       </c>
       <c r="T9">
-        <v>0.04961889919502987</v>
+        <v>0.04667052574542831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.11373910453818</v>
+        <v>11.028824</v>
       </c>
       <c r="H10">
-        <v>4.11373910453818</v>
+        <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.03890180820771187</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J10">
-        <v>0.03890180820771187</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.67364816592456</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N10">
-        <v>4.67364816592456</v>
+        <v>0.038558</v>
       </c>
       <c r="O10">
-        <v>0.04171636218071132</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P10">
-        <v>0.04171636218071132</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q10">
-        <v>19.22616922101701</v>
+        <v>0.1417497985973333</v>
       </c>
       <c r="R10">
-        <v>19.22616922101701</v>
+        <v>1.275748187376</v>
       </c>
       <c r="S10">
-        <v>0.001622841920677477</v>
+        <v>9.337416586014359E-06</v>
       </c>
       <c r="T10">
-        <v>0.001622841920677477</v>
+        <v>1.425673048991596E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.11373910453818</v>
+        <v>11.028824</v>
       </c>
       <c r="H11">
-        <v>4.11373910453818</v>
+        <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.03890180820771187</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J11">
-        <v>0.03890180820771187</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>39.6552658854129</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N11">
-        <v>39.6552658854129</v>
+        <v>0.381973</v>
       </c>
       <c r="O11">
-        <v>0.3539576312375314</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P11">
-        <v>0.3539576312375314</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q11">
-        <v>163.1314179736819</v>
+        <v>1.404237663250667</v>
       </c>
       <c r="R11">
-        <v>163.1314179736819</v>
+        <v>12.638138969256</v>
       </c>
       <c r="S11">
-        <v>0.01376959188405845</v>
+        <v>9.25006749730189E-05</v>
       </c>
       <c r="T11">
-        <v>0.01376959188405845</v>
+        <v>0.0001412336250693674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.11373910453818</v>
+        <v>11.028824</v>
       </c>
       <c r="H12">
-        <v>4.11373910453818</v>
+        <v>33.086472</v>
       </c>
       <c r="I12">
-        <v>0.03890180820771187</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J12">
-        <v>0.03890180820771187</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.752994945328281</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N12">
-        <v>9.752994945328281</v>
+        <v>55.721141</v>
       </c>
       <c r="O12">
-        <v>0.08705393624885213</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P12">
-        <v>0.08705393624885213</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q12">
-        <v>40.12127669296015</v>
+        <v>204.8462190560613</v>
       </c>
       <c r="R12">
-        <v>40.12127669296015</v>
+        <v>1843.615971504552</v>
       </c>
       <c r="S12">
-        <v>0.003386555531679222</v>
+        <v>0.01349373686822565</v>
       </c>
       <c r="T12">
-        <v>0.003386555531679222</v>
+        <v>0.02060276180890104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.11373910453818</v>
+        <v>11.028824</v>
       </c>
       <c r="H13">
-        <v>4.11373910453818</v>
+        <v>33.086472</v>
       </c>
       <c r="I13">
-        <v>0.03890180820771187</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J13">
-        <v>0.03890180820771187</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>57.9520249709885</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N13">
-        <v>57.9520249709885</v>
+        <v>131.041107</v>
       </c>
       <c r="O13">
-        <v>0.5172720703329052</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P13">
-        <v>0.5172720703329052</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q13">
-        <v>238.3995113103284</v>
+        <v>722.6146529340841</v>
       </c>
       <c r="R13">
-        <v>238.3995113103284</v>
+        <v>4335.687917604504</v>
       </c>
       <c r="S13">
-        <v>0.02012281887129673</v>
+        <v>0.04760044890625093</v>
       </c>
       <c r="T13">
-        <v>0.02012281887129673</v>
+        <v>0.04845214340990819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.20150495504923</v>
+        <v>5.35583</v>
       </c>
       <c r="H14">
-        <v>5.20150495504923</v>
+        <v>16.06749</v>
       </c>
       <c r="I14">
-        <v>0.04918832794465809</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J14">
-        <v>0.04918832794465809</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N14">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O14">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P14">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q14">
-        <v>24.31000409321334</v>
+        <v>29.11978428366501</v>
       </c>
       <c r="R14">
-        <v>24.31000409321334</v>
+        <v>174.71870570199</v>
       </c>
       <c r="S14">
-        <v>0.002051958103602961</v>
+        <v>0.001918193601980674</v>
       </c>
       <c r="T14">
-        <v>0.002051958103602961</v>
+        <v>0.001952515020902059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.20150495504923</v>
+        <v>5.35583</v>
       </c>
       <c r="H15">
-        <v>5.20150495504923</v>
+        <v>16.06749</v>
       </c>
       <c r="I15">
-        <v>0.04918832794465809</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J15">
-        <v>0.04918832794465809</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N15">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O15">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P15">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q15">
-        <v>206.2670619967699</v>
+        <v>225.3423304265133</v>
       </c>
       <c r="R15">
-        <v>206.2670619967699</v>
+        <v>2028.08097383862</v>
       </c>
       <c r="S15">
-        <v>0.01741058404382605</v>
+        <v>0.01484386739506265</v>
       </c>
       <c r="T15">
-        <v>0.01741058404382605</v>
+        <v>0.02266419356253552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.20150495504923</v>
+        <v>5.35583</v>
       </c>
       <c r="H16">
-        <v>5.20150495504923</v>
+        <v>16.06749</v>
       </c>
       <c r="I16">
-        <v>0.04918832794465809</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J16">
-        <v>0.04918832794465809</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N16">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O16">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P16">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q16">
-        <v>50.73025153469514</v>
+        <v>0.06883669771333334</v>
       </c>
       <c r="R16">
-        <v>50.73025153469514</v>
+        <v>0.6195302794200001</v>
       </c>
       <c r="S16">
-        <v>0.004282037565081898</v>
+        <v>4.534446816258314E-06</v>
       </c>
       <c r="T16">
-        <v>0.004282037565081898</v>
+        <v>6.923369604937625E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.20150495504923</v>
+        <v>5.35583</v>
       </c>
       <c r="H17">
-        <v>5.20150495504923</v>
+        <v>16.06749</v>
       </c>
       <c r="I17">
-        <v>0.04918832794465809</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J17">
-        <v>0.04918832794465809</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N17">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O17">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P17">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q17">
-        <v>301.4377450417334</v>
+        <v>0.6819274841966667</v>
       </c>
       <c r="R17">
-        <v>301.4377450417334</v>
+        <v>6.13734735777</v>
       </c>
       <c r="S17">
-        <v>0.02544374823214719</v>
+        <v>4.492028252883026E-05</v>
       </c>
       <c r="T17">
-        <v>0.02544374823214719</v>
+        <v>6.858603294016389E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.9874775948692</v>
+        <v>5.35583</v>
       </c>
       <c r="H18">
-        <v>19.9874775948692</v>
+        <v>16.06749</v>
       </c>
       <c r="I18">
-        <v>0.1890127205912903</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J18">
-        <v>0.1890127205912903</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N18">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O18">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P18">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q18">
-        <v>93.41443800271868</v>
+        <v>99.47765286734334</v>
       </c>
       <c r="R18">
-        <v>93.41443800271868</v>
+        <v>895.2988758060899</v>
       </c>
       <c r="S18">
-        <v>0.00788492310894786</v>
+        <v>0.006552843778352886</v>
       </c>
       <c r="T18">
-        <v>0.00788492310894786</v>
+        <v>0.01000513652035489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.9874775948692</v>
+        <v>5.35583</v>
       </c>
       <c r="H19">
-        <v>19.9874775948692</v>
+        <v>16.06749</v>
       </c>
       <c r="I19">
-        <v>0.1890127205912903</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J19">
-        <v>0.1890127205912903</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N19">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O19">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P19">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q19">
-        <v>792.6087384032713</v>
+        <v>350.916946051905</v>
       </c>
       <c r="R19">
-        <v>792.6087384032713</v>
+        <v>2105.50167631143</v>
       </c>
       <c r="S19">
-        <v>0.06690249485425451</v>
+        <v>0.02311578390094592</v>
       </c>
       <c r="T19">
-        <v>0.06690249485425451</v>
+        <v>0.02352938475027696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.9874775948692</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H20">
-        <v>19.9874775948692</v>
+        <v>22.745873</v>
       </c>
       <c r="I20">
-        <v>0.1890127205912903</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J20">
-        <v>0.1890127205912903</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N20">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O20">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P20">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q20">
-        <v>194.9377679526216</v>
+        <v>41.22329717358717</v>
       </c>
       <c r="R20">
-        <v>194.9377679526216</v>
+        <v>247.339783041523</v>
       </c>
       <c r="S20">
-        <v>0.01645430132857629</v>
+        <v>0.002715482509095382</v>
       </c>
       <c r="T20">
-        <v>0.01645430132857629</v>
+        <v>0.002764069477935296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.9874775948692</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H21">
-        <v>19.9874775948692</v>
+        <v>22.745873</v>
       </c>
       <c r="I21">
-        <v>0.1890127205912903</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J21">
-        <v>0.1890127205912903</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.9520249709885</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N21">
-        <v>57.9520249709885</v>
+        <v>126.222638</v>
       </c>
       <c r="O21">
-        <v>0.5172720703329052</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P21">
-        <v>0.5172720703329052</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q21">
-        <v>1158.314800684933</v>
+        <v>319.0048992969971</v>
       </c>
       <c r="R21">
-        <v>1158.314800684933</v>
+        <v>2871.044093672974</v>
       </c>
       <c r="S21">
-        <v>0.09777100129951169</v>
+        <v>0.02101365693066782</v>
       </c>
       <c r="T21">
-        <v>0.09777100129951169</v>
+        <v>0.03208446797980585</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.7174880938649</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H22">
-        <v>42.7174880938649</v>
+        <v>22.745873</v>
       </c>
       <c r="I22">
-        <v>0.4039603598365057</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J22">
-        <v>0.4039603598365057</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>4.67364816592456</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N22">
-        <v>4.67364816592456</v>
+        <v>0.038558</v>
       </c>
       <c r="O22">
-        <v>0.04171636218071132</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P22">
-        <v>0.04171636218071132</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q22">
-        <v>199.6465098827959</v>
+        <v>0.09744837457044445</v>
       </c>
       <c r="R22">
-        <v>199.6465098827959</v>
+        <v>0.877035371134</v>
       </c>
       <c r="S22">
-        <v>0.01685175667759014</v>
+        <v>6.419170101108882E-06</v>
       </c>
       <c r="T22">
-        <v>0.01685175667759014</v>
+        <v>9.801038355460086E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.7174880938649</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H23">
-        <v>42.7174880938649</v>
+        <v>22.745873</v>
       </c>
       <c r="I23">
-        <v>0.4039603598365057</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J23">
-        <v>0.4039603598365057</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>39.6552658854129</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N23">
-        <v>39.6552658854129</v>
+        <v>0.381973</v>
       </c>
       <c r="O23">
-        <v>0.3539576312375314</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P23">
-        <v>0.3539576312375314</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q23">
-        <v>1693.973348319173</v>
+        <v>0.965367705269889</v>
       </c>
       <c r="R23">
-        <v>1693.973348319173</v>
+        <v>8.688309347429</v>
       </c>
       <c r="S23">
-        <v>0.1429848520815904</v>
+        <v>6.359120444605174E-05</v>
       </c>
       <c r="T23">
-        <v>0.1429848520815904</v>
+        <v>9.709352206416711E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.7174880938649</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H24">
-        <v>42.7174880938649</v>
+        <v>22.745873</v>
       </c>
       <c r="I24">
-        <v>0.4039603598365057</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J24">
-        <v>0.4039603598365057</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.752994945328281</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N24">
-        <v>9.752994945328281</v>
+        <v>55.721141</v>
       </c>
       <c r="O24">
-        <v>0.08705393624885213</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P24">
-        <v>0.08705393624885213</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q24">
-        <v>416.6234454565854</v>
+        <v>140.8251107334548</v>
       </c>
       <c r="R24">
-        <v>416.6234454565854</v>
+        <v>1267.425996601093</v>
       </c>
       <c r="S24">
-        <v>0.03516633941227054</v>
+        <v>0.009276505065274969</v>
       </c>
       <c r="T24">
-        <v>0.03516633941227054</v>
+        <v>0.01416372841306602</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.7174880938649</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H25">
-        <v>42.7174880938649</v>
+        <v>22.745873</v>
       </c>
       <c r="I25">
-        <v>0.4039603598365057</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J25">
-        <v>0.4039603598365057</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.9520249709885</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N25">
-        <v>57.9520249709885</v>
+        <v>131.041107</v>
       </c>
       <c r="O25">
-        <v>0.5172720703329052</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P25">
-        <v>0.5172720703329052</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q25">
-        <v>2475.564936713562</v>
+        <v>496.7740629335685</v>
       </c>
       <c r="R25">
-        <v>2475.564936713562</v>
+        <v>2980.644377601411</v>
       </c>
       <c r="S25">
-        <v>0.2089574116650547</v>
+        <v>0.03272375989693228</v>
       </c>
       <c r="T25">
-        <v>0.2089574116650547</v>
+        <v>0.03330927215750167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H26">
+        <v>64.570888</v>
+      </c>
+      <c r="I26">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J26">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N26">
+        <v>10.874051</v>
+      </c>
+      <c r="O26">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P26">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q26">
+        <v>117.0245215378813</v>
+      </c>
+      <c r="R26">
+        <v>702.147129227288</v>
+      </c>
+      <c r="S26">
+        <v>0.007708700253481449</v>
+      </c>
+      <c r="T26">
+        <v>0.0078466287349788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H27">
+        <v>64.570888</v>
+      </c>
+      <c r="I27">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J27">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N27">
+        <v>126.222638</v>
+      </c>
+      <c r="O27">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P27">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q27">
+        <v>905.5897579291714</v>
+      </c>
+      <c r="R27">
+        <v>8150.307821362543</v>
+      </c>
+      <c r="S27">
+        <v>0.05965348035402181</v>
+      </c>
+      <c r="T27">
+        <v>0.09108125190286737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H28">
+        <v>64.570888</v>
+      </c>
+      <c r="I28">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J28">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.038558</v>
+      </c>
+      <c r="O28">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P28">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q28">
+        <v>0.2766360332782222</v>
+      </c>
+      <c r="R28">
+        <v>2.489724299504</v>
+      </c>
+      <c r="S28">
+        <v>1.822271291375144E-05</v>
+      </c>
+      <c r="T28">
+        <v>2.782314620037303E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H29">
+        <v>64.570888</v>
+      </c>
+      <c r="I29">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J29">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.381973</v>
+      </c>
+      <c r="O29">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P29">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q29">
+        <v>2.740481755780444</v>
+      </c>
+      <c r="R29">
+        <v>24.664335802024</v>
+      </c>
+      <c r="S29">
+        <v>0.0001805224420303019</v>
+      </c>
+      <c r="T29">
+        <v>0.0002756286794853231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H30">
+        <v>64.570888</v>
+      </c>
+      <c r="I30">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J30">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N30">
+        <v>55.721141</v>
+      </c>
+      <c r="O30">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P30">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q30">
+        <v>399.7737283048008</v>
+      </c>
+      <c r="R30">
+        <v>3597.963554743208</v>
+      </c>
+      <c r="S30">
+        <v>0.02633410331629402</v>
+      </c>
+      <c r="T30">
+        <v>0.04020793227072462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>21.52362933333333</v>
+      </c>
+      <c r="H31">
+        <v>64.570888</v>
+      </c>
+      <c r="I31">
+        <v>0.1867911001701303</v>
+      </c>
+      <c r="J31">
+        <v>0.2339974855527565</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N31">
+        <v>131.041107</v>
+      </c>
+      <c r="O31">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P31">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q31">
+        <v>1410.240107248836</v>
+      </c>
+      <c r="R31">
+        <v>8461.440643493017</v>
+      </c>
+      <c r="S31">
+        <v>0.09289607109138899</v>
+      </c>
+      <c r="T31">
+        <v>0.09455822081850006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>46.0185595</v>
+      </c>
+      <c r="H32">
+        <v>92.037119</v>
+      </c>
+      <c r="I32">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J32">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N32">
+        <v>10.874051</v>
+      </c>
+      <c r="O32">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P32">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q32">
+        <v>250.2040814747673</v>
+      </c>
+      <c r="R32">
+        <v>1000.816325899069</v>
+      </c>
+      <c r="S32">
+        <v>0.01648157361328999</v>
+      </c>
+      <c r="T32">
+        <v>0.01118431424746805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>46.0185595</v>
+      </c>
+      <c r="H33">
+        <v>92.037119</v>
+      </c>
+      <c r="I33">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J33">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N33">
+        <v>126.222638</v>
+      </c>
+      <c r="O33">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P33">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q33">
+        <v>1936.194659016654</v>
+      </c>
+      <c r="R33">
+        <v>11617.16795409992</v>
+      </c>
+      <c r="S33">
+        <v>0.1275420233520856</v>
+      </c>
+      <c r="T33">
+        <v>0.1298240783068243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>46.0185595</v>
+      </c>
+      <c r="H34">
+        <v>92.037119</v>
+      </c>
+      <c r="I34">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J34">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.038558</v>
+      </c>
+      <c r="O34">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P34">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q34">
+        <v>0.5914612057336667</v>
+      </c>
+      <c r="R34">
+        <v>3.548767234402</v>
+      </c>
+      <c r="S34">
+        <v>3.896104070024045E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.965815396248121E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>46.0185595</v>
+      </c>
+      <c r="H35">
+        <v>92.037119</v>
+      </c>
+      <c r="I35">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J35">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.381973</v>
+      </c>
+      <c r="O35">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P35">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q35">
+        <v>5.859282409297834</v>
+      </c>
+      <c r="R35">
+        <v>35.155694455787</v>
+      </c>
+      <c r="S35">
+        <v>0.0003859657035995888</v>
+      </c>
+      <c r="T35">
+        <v>0.0003928716231005455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>46.0185595</v>
+      </c>
+      <c r="H36">
+        <v>92.037119</v>
+      </c>
+      <c r="I36">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J36">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N36">
+        <v>55.721141</v>
+      </c>
+      <c r="O36">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P36">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q36">
+        <v>854.7355475054632</v>
+      </c>
+      <c r="R36">
+        <v>5128.413285032779</v>
+      </c>
+      <c r="S36">
+        <v>0.05630358530952945</v>
+      </c>
+      <c r="T36">
+        <v>0.05731100131602065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>46.0185595</v>
+      </c>
+      <c r="H37">
+        <v>92.037119</v>
+      </c>
+      <c r="I37">
+        <v>0.3993683975934915</v>
+      </c>
+      <c r="J37">
+        <v>0.3335319536494501</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N37">
+        <v>131.041107</v>
+      </c>
+      <c r="O37">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P37">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q37">
+        <v>3015.161489712684</v>
+      </c>
+      <c r="R37">
+        <v>12060.64595885074</v>
+      </c>
+      <c r="S37">
+        <v>0.1986162885742866</v>
+      </c>
+      <c r="T37">
+        <v>0.1347800300020741</v>
       </c>
     </row>
   </sheetData>
